--- a/dataidh.xlsx
+++ b/dataidh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betsy Velezmoro\Desktop\TRABAJOS PUCP\2021-2\ESTADÍSTICA PARA EL ANÁLISIS POLÍTICO II\TRABAJO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89AFC02E-063A-4482-8AC6-73FB3C64E310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B895902-1CDC-4DBD-9E37-C62CA72D1318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="228" windowWidth="11568" windowHeight="11856" xr2:uid="{38ACBFAB-751B-4503-8517-9D2A87DD6DB9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38ACBFAB-751B-4503-8517-9D2A87DD6DB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -177,9 +177,6 @@
     <t>Surinam</t>
   </si>
   <si>
-    <t>Brazil</t>
-  </si>
-  <si>
     <t xml:space="preserve">Colombia </t>
   </si>
   <si>
@@ -550,6 +547,9 @@
   </si>
   <si>
     <t xml:space="preserve">República Democrática del Congo </t>
+  </si>
+  <si>
+    <t>Brasil</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -644,7 +644,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E81A944-3DA6-4AFE-81DE-C048D89E0DC3}">
   <dimension ref="A1:L168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -991,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" s="8">
         <v>0.86599999999999999</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="B49" s="8">
         <v>0.76500000000000001</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="8">
         <v>0.76700000000000002</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="8">
         <v>0.64500000000000002</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="8">
         <v>0.81</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="8">
         <v>0.68200000000000005</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="8">
         <v>0.52700000000000002</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="8">
         <v>0.71799999999999997</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="8">
         <v>0.61099999999999999</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="8">
         <v>0.85399999999999998</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="8">
         <v>0.88</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="8">
         <v>0.77700000000000002</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="8">
         <v>0.85099999999999998</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="8">
         <v>0.75600000000000001</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="8">
         <v>0.73699999999999999</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="8">
         <v>0.71799999999999997</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="8">
         <v>0.73799999999999999</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="8">
         <v>0.80600000000000005</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="8">
         <v>0.93799999999999994</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="8">
         <v>0.82799999999999996</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="8">
         <v>0.75900000000000001</v>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="8">
         <v>0.64600000000000002</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="8">
         <v>0.72799999999999998</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="8">
         <v>0.78200000000000003</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="8">
         <v>0.77900000000000003</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="8">
         <v>0.94899999999999995</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="8">
         <v>0.51200000000000001</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="8">
         <v>0.55500000000000005</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="8">
         <v>0.79500000000000004</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="8">
         <v>0.67300000000000004</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="8">
         <v>0.77400000000000002</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="8">
         <v>0.75</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="8">
         <v>0.74299999999999999</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="8">
         <v>0.82899999999999996</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B82" s="8">
         <v>0.54500000000000004</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" s="8">
         <v>0.71799999999999997</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="8">
         <v>0.77900000000000003</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="8">
         <v>0.63400000000000001</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="8">
         <v>0.58399999999999996</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="8">
         <v>0.66300000000000003</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B88" s="8">
         <v>0.63200000000000001</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89" s="8">
         <v>0.81200000000000006</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" s="8">
         <v>0.48299999999999998</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" s="8">
         <v>0.52900000000000003</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B92" s="8">
         <v>0.434</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B93" s="8">
         <v>0.48</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B94" s="8">
         <v>0.65400000000000003</v>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B95" s="8">
         <v>0.52800000000000002</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B96" s="8">
         <v>0.54400000000000004</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B97" s="8">
         <v>0.60199999999999998</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B98" s="8">
         <v>0.60099999999999998</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B99" s="8">
         <v>0.69699999999999995</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B100" s="8">
         <v>0.68600000000000005</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B101" s="8">
         <v>0.78</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B102" s="8">
         <v>0.51</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B103" s="8">
         <v>0.77600000000000002</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B104" s="8">
         <v>0.45200000000000001</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B105" s="8">
         <v>0.45200000000000001</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B106" s="8">
         <v>0.74399999999999999</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B107" s="8">
         <v>0.77700000000000002</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B108" s="8">
         <v>0.53900000000000003</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B109" s="8">
         <v>0.70799999999999996</v>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B110" s="8">
         <v>0.82</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B111" s="8">
         <v>0.496</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B112" s="8">
         <v>0.55700000000000005</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B113" s="8">
         <v>0.53800000000000003</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B114" s="8">
         <v>0.67400000000000004</v>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B115" s="8">
         <v>0.72899999999999998</v>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B116" s="8">
         <v>0.45600000000000002</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B117" s="8">
         <v>0.80600000000000005</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B118" s="8">
         <v>0.73499999999999999</v>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B119" s="8">
         <v>0.54600000000000004</v>
@@ -3480,7 +3480,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B120" s="8">
         <v>0.39400000000000002</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B121" s="8">
         <v>0.55400000000000005</v>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B122" s="8">
         <v>0.66</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B123" s="8">
         <v>0.58099999999999996</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B124" s="8">
         <v>0.70299999999999996</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B125" s="8">
         <v>0.59399999999999997</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B126" s="8">
         <v>0.748</v>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B127" s="8">
         <v>0.70699999999999996</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B128" s="8">
         <v>0.48499999999999999</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B129" s="8">
         <v>0.54300000000000004</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B130" s="8">
         <v>0.57399999999999995</v>
@@ -3700,7 +3700,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B131" s="8">
         <v>0.56299999999999994</v>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B132" s="8">
         <v>0.84799999999999998</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B133" s="8">
         <v>0.57099999999999995</v>
@@ -3760,7 +3760,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B134" s="8">
         <v>0.71099999999999997</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B135" s="8">
         <v>0.47699999999999998</v>
@@ -3800,7 +3800,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B136" s="8">
         <v>0.82299999999999995</v>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B137" s="8">
         <v>0.51500000000000001</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B138" s="8">
         <v>0.70399999999999996</v>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B139" s="8">
         <v>0.81299999999999994</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B140" s="8">
         <v>0.61099999999999999</v>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B141" s="8">
         <v>0.78300000000000003</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B142" s="8">
         <v>0.51100000000000001</v>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B143" s="8">
         <v>0.82499999999999996</v>
@@ -3960,7 +3960,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B144" s="8">
         <v>0.82399999999999995</v>
@@ -3980,7 +3980,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B145" s="8">
         <v>0.52400000000000002</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B146" s="8">
         <v>0.89</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B147" s="8">
         <v>0.85199999999999998</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B148" s="8">
         <v>0.75600000000000001</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B149" s="8">
         <v>0.78300000000000003</v>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B150" s="8">
         <v>0.45900000000000002</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B151" s="8">
         <v>0.433</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B152" s="8">
         <v>0.76100000000000001</v>
@@ -4140,7 +4140,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B153" s="8">
         <v>0.72399999999999998</v>
@@ -4160,7 +4160,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B154" s="8">
         <v>0.51</v>
@@ -4180,7 +4180,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B155" s="8">
         <v>0.61299999999999999</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B156" s="8">
         <v>0.72</v>
@@ -4220,7 +4220,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B157" s="8">
         <v>0.48</v>
@@ -4240,7 +4240,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B158" s="8">
         <v>0.47</v>
@@ -4260,7 +4260,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B159" s="8">
         <v>0.85399999999999998</v>
@@ -4280,7 +4280,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B160" s="8">
         <v>0.66800000000000004</v>
@@ -4300,7 +4300,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B161" s="8">
         <v>0.59199999999999997</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B162" s="8">
         <v>0.71499999999999997</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B163" s="8">
         <v>0.39800000000000002</v>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B164" s="8">
         <v>0.56699999999999995</v>
@@ -4380,7 +4380,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B165" s="8">
         <v>0.39700000000000002</v>
@@ -4400,7 +4400,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B166" s="8">
         <v>0.48</v>
@@ -4420,7 +4420,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B167" s="8">
         <v>0.39800000000000002</v>

--- a/dataidh.xlsx
+++ b/dataidh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betsy Velezmoro\Desktop\TRABAJOS PUCP\2021-2\ESTADÍSTICA PARA EL ANÁLISIS POLÍTICO II\TRABAJO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B895902-1CDC-4DBD-9E37-C62CA72D1318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A94117-2330-4135-8501-CA05D0D62036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38ACBFAB-751B-4503-8517-9D2A87DD6DB9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>País</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Nueva Zelanda</t>
   </si>
   <si>
-    <t>Canadá</t>
-  </si>
-  <si>
     <t>Finlandia</t>
   </si>
   <si>
@@ -66,12 +63,6 @@
     <t>Australia</t>
   </si>
   <si>
-    <t>Países Bajos</t>
-  </si>
-  <si>
-    <t>República de China</t>
-  </si>
-  <si>
     <t>Suiza</t>
   </si>
   <si>
@@ -102,9 +93,6 @@
     <t>Corea del Sur</t>
   </si>
   <si>
-    <t>Japón</t>
-  </si>
-  <si>
     <t>Chile</t>
   </si>
   <si>
@@ -129,15 +117,9 @@
     <t>Israel</t>
   </si>
   <si>
-    <t>Bélgica</t>
-  </si>
-  <si>
     <t>Italia</t>
   </si>
   <si>
-    <t>República Checa</t>
-  </si>
-  <si>
     <t>Chipre</t>
   </si>
   <si>
@@ -150,9 +132,6 @@
     <t>Grecia</t>
   </si>
   <si>
-    <t>Sudáfrica</t>
-  </si>
-  <si>
     <t>Timor Oriental</t>
   </si>
   <si>
@@ -162,9 +141,6 @@
     <t>Eslovaquia</t>
   </si>
   <si>
-    <t>Panamá</t>
-  </si>
-  <si>
     <t>Bulgaria</t>
   </si>
   <si>
@@ -198,30 +174,18 @@
     <t>Ghana</t>
   </si>
   <si>
-    <t>Hungría</t>
-  </si>
-  <si>
     <t>Polonia</t>
   </si>
   <si>
-    <t>Perú</t>
-  </si>
-  <si>
     <t>Croacia</t>
   </si>
   <si>
-    <t>República Dominicana</t>
-  </si>
-  <si>
     <t>Mongolia</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Túnez</t>
-  </si>
-  <si>
     <t>Serbia</t>
   </si>
   <si>
@@ -243,18 +207,12 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>México</t>
-  </si>
-  <si>
     <t>Hong Kong</t>
   </si>
   <si>
     <t>Senegal</t>
   </si>
   <si>
-    <t>Papúa Nueva Guinea</t>
-  </si>
-  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -303,9 +261,6 @@
     <t>Liberia</t>
   </si>
   <si>
-    <t>Bután</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -318,27 +273,18 @@
     <t>Kenia</t>
   </si>
   <si>
-    <t>Kirguistán</t>
-  </si>
-  <si>
     <t>Marruecos</t>
   </si>
   <si>
     <t>Bosnia y Herzegovina</t>
   </si>
   <si>
-    <t>Haití</t>
-  </si>
-  <si>
     <t>Armenia</t>
   </si>
   <si>
     <t>Sierra Leona</t>
   </si>
   <si>
-    <t>Líbano</t>
-  </si>
-  <si>
     <t>Tailandia</t>
   </si>
   <si>
@@ -348,15 +294,9 @@
     <t>Palestina</t>
   </si>
   <si>
-    <t>Turquía</t>
-  </si>
-  <si>
     <t>Gambia</t>
   </si>
   <si>
-    <t>Pakistán</t>
-  </si>
-  <si>
     <t>Costa de Marfil</t>
   </si>
   <si>
@@ -381,9 +321,6 @@
     <t>Angola</t>
   </si>
   <si>
-    <t>Gabón</t>
-  </si>
-  <si>
     <t>Camboya</t>
   </si>
   <si>
@@ -393,18 +330,9 @@
     <t>Egipto</t>
   </si>
   <si>
-    <t>Etiopía</t>
-  </si>
-  <si>
     <t>Ruanda</t>
   </si>
   <si>
-    <t>República del Congo</t>
-  </si>
-  <si>
-    <t>Camerún</t>
-  </si>
-  <si>
     <t>Catar</t>
   </si>
   <si>
@@ -426,48 +354,18 @@
     <t>Vietnam</t>
   </si>
   <si>
-    <t>Omán</t>
-  </si>
-  <si>
     <t>Suazilandia</t>
   </si>
   <si>
     <t>Cuba</t>
   </si>
   <si>
-    <t>Afganistán</t>
-  </si>
-  <si>
-    <t>Kazajistán</t>
-  </si>
-  <si>
     <t>Rusia</t>
   </si>
   <si>
     <t>Yibuti</t>
   </si>
   <si>
-    <t>Emiratos Árabes Unidos</t>
-  </si>
-  <si>
-    <t>Benín</t>
-  </si>
-  <si>
-    <t>Malí</t>
-  </si>
-  <si>
-    <t>Níger</t>
-  </si>
-  <si>
-    <t>Baréin</t>
-  </si>
-  <si>
-    <t>Azerbaiyán</t>
-  </si>
-  <si>
-    <t>Irán</t>
-  </si>
-  <si>
     <t>Eritrea</t>
   </si>
   <si>
@@ -480,51 +378,30 @@
     <t>Libia</t>
   </si>
   <si>
-    <t>Sudán</t>
-  </si>
-  <si>
     <t>Laos</t>
   </si>
   <si>
-    <t>Uzbekistán</t>
-  </si>
-  <si>
-    <t>Guinea - Bisáu</t>
-  </si>
-  <si>
     <t>Yemen</t>
   </si>
   <si>
     <t>Arabia Saudita</t>
   </si>
   <si>
-    <t>Tayikistán</t>
-  </si>
-  <si>
     <t>Guinea Ecuatorial</t>
   </si>
   <si>
-    <t>Turkmenistán</t>
-  </si>
-  <si>
     <t>Chad</t>
   </si>
   <si>
     <t>Siria</t>
   </si>
   <si>
-    <t>República Centroafricana</t>
-  </si>
-  <si>
     <t>Corea del Norte</t>
   </si>
   <si>
     <t>Índice de Desarrollo Humano</t>
   </si>
   <si>
-    <t>Bangladés</t>
-  </si>
-  <si>
     <t>Burkina Faso</t>
   </si>
   <si>
@@ -546,10 +423,130 @@
     <t>Birmania</t>
   </si>
   <si>
-    <t xml:space="preserve">República Democrática del Congo </t>
-  </si>
-  <si>
     <t>Brasil</t>
+  </si>
+  <si>
+    <t>Afganistan</t>
+  </si>
+  <si>
+    <t>Republica del Congo</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Paises Bajos</t>
+  </si>
+  <si>
+    <t>Republica de China</t>
+  </si>
+  <si>
+    <t>Japon</t>
+  </si>
+  <si>
+    <t>Belgica</t>
+  </si>
+  <si>
+    <t>Republica Checa</t>
+  </si>
+  <si>
+    <t>Sudafrica</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Hungria</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Republica Dominicana</t>
+  </si>
+  <si>
+    <t>Tunez</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Papua Nueva Guinea</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Banglades</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Butan</t>
+  </si>
+  <si>
+    <t>Kirguistan</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Libano</t>
+  </si>
+  <si>
+    <t>Turquia</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Etiopia</t>
+  </si>
+  <si>
+    <t>Camerun</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Kazajistan</t>
+  </si>
+  <si>
+    <t>Emiratos Arabes Unidos</t>
+  </si>
+  <si>
+    <t>Barein</t>
+  </si>
+  <si>
+    <t>Azerbaiyan</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Guinea - Bisau</t>
+  </si>
+  <si>
+    <t>Tayikistan</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Republica Centroafricana</t>
   </si>
 </sst>
 </file>
@@ -971,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E81A944-3DA6-4AFE-81DE-C048D89E0DC3}">
-  <dimension ref="A1:L168"/>
+  <dimension ref="A1:L167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K160" sqref="K160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -991,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -1090,7 +1087,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="B6" s="8">
         <v>0.92900000000000005</v>
@@ -1110,7 +1107,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8">
         <v>0.93799999999999994</v>
@@ -1130,7 +1127,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="8">
         <v>0.94</v>
@@ -1150,7 +1147,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8">
         <v>0.95499999999999996</v>
@@ -1170,7 +1167,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8">
         <v>0.94399999999999995</v>
@@ -1190,7 +1187,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="B11" s="8">
         <v>0.94399999999999995</v>
@@ -1210,7 +1207,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="B12" s="8">
         <v>0.76100000000000001</v>
@@ -1230,7 +1227,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="8">
         <v>0.95499999999999996</v>
@@ -1250,7 +1247,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="8">
         <v>0.94699999999999995</v>
@@ -1270,7 +1267,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="8">
         <v>0.93200000000000005</v>
@@ -1290,7 +1287,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="8">
         <v>0.81699999999999995</v>
@@ -1310,7 +1307,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="8">
         <v>0.92200000000000004</v>
@@ -1330,7 +1327,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18" s="8">
         <v>0.80400000000000005</v>
@@ -1350,7 +1347,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="8">
         <v>0.89500000000000002</v>
@@ -1370,7 +1367,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" s="8">
         <v>0.90400000000000003</v>
@@ -1390,7 +1387,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" s="8">
         <v>0.81</v>
@@ -1410,7 +1407,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22" s="8">
         <v>0.91600000000000004</v>
@@ -1430,7 +1427,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="B23" s="8">
         <v>0.91900000000000004</v>
@@ -1450,7 +1447,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B24" s="8">
         <v>0.81</v>
@@ -1470,7 +1467,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B25" s="8">
         <v>0.89200000000000002</v>
@@ -1490,7 +1487,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B26" s="8">
         <v>0.92600000000000005</v>
@@ -1510,7 +1507,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B27" s="8">
         <v>0.66500000000000004</v>
@@ -1530,7 +1527,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B28" s="8">
         <v>0.86399999999999999</v>
@@ -1550,7 +1547,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B29" s="8">
         <v>0.73499999999999999</v>
@@ -1570,7 +1567,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B30" s="8">
         <v>0.90100000000000002</v>
@@ -1590,7 +1587,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" s="8">
         <v>0.91900000000000004</v>
@@ -1610,7 +1607,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="B32" s="8">
         <v>0.93100000000000005</v>
@@ -1630,7 +1627,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B33" s="8">
         <v>0.89200000000000002</v>
@@ -1650,7 +1647,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="B34" s="8">
         <v>0.9</v>
@@ -1670,7 +1667,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B35" s="8">
         <v>0.88700000000000001</v>
@@ -1690,7 +1687,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B36" s="8">
         <v>0.86</v>
@@ -1710,7 +1707,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B37" s="8">
         <v>0.88200000000000001</v>
@@ -1730,7 +1727,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B38" s="8">
         <v>0.86599999999999999</v>
@@ -1750,7 +1747,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B39" s="8">
         <v>0.88800000000000001</v>
@@ -1770,7 +1767,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B40" s="8">
         <v>0.70899999999999996</v>
@@ -1790,7 +1787,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B41" s="8">
         <v>0.60599999999999998</v>
@@ -1810,7 +1807,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B42" s="8">
         <v>0.79600000000000004</v>
@@ -1830,7 +1827,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B43" s="8">
         <v>0.86</v>
@@ -1850,7 +1847,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="B44" s="8">
         <v>0.81499999999999995</v>
@@ -1870,7 +1867,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B45" s="8">
         <v>0.81599999999999995</v>
@@ -1890,7 +1887,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B46" s="8">
         <v>0.84499999999999997</v>
@@ -1910,7 +1907,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B47" s="8">
         <v>0.73399999999999999</v>
@@ -1930,7 +1927,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B48" s="8">
         <v>0.73799999999999999</v>
@@ -1950,7 +1947,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="B49" s="8">
         <v>0.76500000000000001</v>
@@ -1970,7 +1967,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B50" s="8">
         <v>0.76700000000000002</v>
@@ -1990,7 +1987,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B51" s="8">
         <v>0.64500000000000002</v>
@@ -2010,7 +2007,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B52" s="8">
         <v>0.81</v>
@@ -2030,7 +2027,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B53" s="8">
         <v>0.68200000000000005</v>
@@ -2050,7 +2047,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B54" s="8">
         <v>0.52700000000000002</v>
@@ -2070,7 +2067,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B55" s="8">
         <v>0.71799999999999997</v>
@@ -2090,7 +2087,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B56" s="8">
         <v>0.61099999999999999</v>
@@ -2110,7 +2107,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="B57" s="8">
         <v>0.85399999999999998</v>
@@ -2130,7 +2127,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B58" s="8">
         <v>0.88</v>
@@ -2150,7 +2147,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="B59" s="8">
         <v>0.77700000000000002</v>
@@ -2170,7 +2167,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B60" s="8">
         <v>0.85099999999999998</v>
@@ -2190,7 +2187,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="B61" s="8">
         <v>0.75600000000000001</v>
@@ -2210,7 +2207,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B62" s="8">
         <v>0.73699999999999999</v>
@@ -2230,7 +2227,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B63" s="8">
         <v>0.71799999999999997</v>
@@ -2250,7 +2247,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="B64" s="8">
         <v>0.73799999999999999</v>
@@ -2270,7 +2267,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B65" s="8">
         <v>0.80600000000000005</v>
@@ -2290,7 +2287,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B66" s="8">
         <v>0.93799999999999994</v>
@@ -2310,7 +2307,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B67" s="8">
         <v>0.82799999999999996</v>
@@ -2330,7 +2327,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B68" s="8">
         <v>0.75900000000000001</v>
@@ -2350,7 +2347,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B69" s="8">
         <v>0.64600000000000002</v>
@@ -2370,7 +2367,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B70" s="8">
         <v>0.72799999999999998</v>
@@ -2390,7 +2387,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B71" s="8">
         <v>0.78200000000000003</v>
@@ -2410,7 +2407,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="B72" s="8">
         <v>0.77900000000000003</v>
@@ -2430,7 +2427,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B73" s="8">
         <v>0.94899999999999995</v>
@@ -2450,7 +2447,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B74" s="8">
         <v>0.51200000000000001</v>
@@ -2470,7 +2467,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="3" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="B75" s="8">
         <v>0.55500000000000005</v>
@@ -2490,7 +2487,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B76" s="8">
         <v>0.79500000000000004</v>
@@ -2510,7 +2507,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B77" s="8">
         <v>0.67300000000000004</v>
@@ -2530,7 +2527,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B78" s="8">
         <v>0.77400000000000002</v>
@@ -2550,7 +2547,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B79" s="8">
         <v>0.75</v>
@@ -2570,7 +2567,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B80" s="8">
         <v>0.74299999999999999</v>
@@ -2590,7 +2587,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B81" s="8">
         <v>0.82899999999999996</v>
@@ -2610,7 +2607,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B82" s="8">
         <v>0.54500000000000004</v>
@@ -2630,7 +2627,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B83" s="8">
         <v>0.71799999999999997</v>
@@ -2655,7 +2652,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B84" s="8">
         <v>0.77900000000000003</v>
@@ -2680,7 +2677,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B85" s="8">
         <v>0.63400000000000001</v>
@@ -2705,7 +2702,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B86" s="8">
         <v>0.58399999999999996</v>
@@ -2730,7 +2727,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B87" s="8">
         <v>0.66300000000000003</v>
@@ -2755,7 +2752,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B88" s="8">
         <v>0.63200000000000001</v>
@@ -2780,7 +2777,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="3" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B89" s="8">
         <v>0.81200000000000006</v>
@@ -2805,7 +2802,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="3" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B90" s="8">
         <v>0.48299999999999998</v>
@@ -2830,7 +2827,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B91" s="8">
         <v>0.52900000000000003</v>
@@ -2855,7 +2852,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B92" s="8">
         <v>0.434</v>
@@ -2880,7 +2877,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B93" s="8">
         <v>0.48</v>
@@ -2905,7 +2902,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="3" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="B94" s="8">
         <v>0.65400000000000003</v>
@@ -2930,7 +2927,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B95" s="8">
         <v>0.52800000000000002</v>
@@ -2955,7 +2952,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B96" s="8">
         <v>0.54400000000000004</v>
@@ -2980,7 +2977,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B97" s="8">
         <v>0.60199999999999998</v>
@@ -3005,7 +3002,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B98" s="8">
         <v>0.60099999999999998</v>
@@ -3030,7 +3027,7 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="3" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="B99" s="8">
         <v>0.69699999999999995</v>
@@ -3055,7 +3052,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="3" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B100" s="8">
         <v>0.68600000000000005</v>
@@ -3080,7 +3077,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="3" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B101" s="8">
         <v>0.78</v>
@@ -3105,7 +3102,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="3" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="B102" s="8">
         <v>0.51</v>
@@ -3130,7 +3127,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="3" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B103" s="8">
         <v>0.77600000000000002</v>
@@ -3155,7 +3152,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="3" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="B104" s="8">
         <v>0.45200000000000001</v>
@@ -3180,7 +3177,7 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="3" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B105" s="8">
         <v>0.45200000000000001</v>
@@ -3200,7 +3197,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="3" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="B106" s="8">
         <v>0.74399999999999999</v>
@@ -3220,7 +3217,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="3" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B107" s="8">
         <v>0.77700000000000002</v>
@@ -3240,7 +3237,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B108" s="8">
         <v>0.53900000000000003</v>
@@ -3260,7 +3257,7 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="3" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B109" s="8">
         <v>0.70799999999999996</v>
@@ -3280,7 +3277,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="3" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="B110" s="8">
         <v>0.82</v>
@@ -3300,7 +3297,7 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B111" s="8">
         <v>0.496</v>
@@ -3320,7 +3317,7 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="3" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="B112" s="8">
         <v>0.55700000000000005</v>
@@ -3340,7 +3337,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="3" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B113" s="8">
         <v>0.53800000000000003</v>
@@ -3360,7 +3357,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B114" s="8">
         <v>0.67400000000000004</v>
@@ -3380,7 +3377,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="3" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B115" s="8">
         <v>0.72899999999999998</v>
@@ -3400,7 +3397,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="3" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B116" s="8">
         <v>0.45600000000000002</v>
@@ -3420,7 +3417,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="3" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="B117" s="8">
         <v>0.80600000000000005</v>
@@ -3440,7 +3437,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="3" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="B118" s="8">
         <v>0.73499999999999999</v>
@@ -3460,7 +3457,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="3" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B119" s="8">
         <v>0.54600000000000004</v>
@@ -3480,7 +3477,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B120" s="8">
         <v>0.39400000000000002</v>
@@ -3500,7 +3497,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="3" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B121" s="8">
         <v>0.55400000000000005</v>
@@ -3520,7 +3517,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="3" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B122" s="8">
         <v>0.66</v>
@@ -3540,7 +3537,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="3" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B123" s="8">
         <v>0.58099999999999996</v>
@@ -3560,7 +3557,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="3" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="B124" s="8">
         <v>0.70299999999999996</v>
@@ -3580,7 +3577,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="3" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B125" s="8">
         <v>0.59399999999999997</v>
@@ -3600,7 +3597,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="3" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B126" s="8">
         <v>0.748</v>
@@ -3620,7 +3617,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="3" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B127" s="8">
         <v>0.70699999999999996</v>
@@ -3640,7 +3637,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="3" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="B128" s="8">
         <v>0.48499999999999999</v>
@@ -3660,7 +3657,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B129" s="8">
         <v>0.54300000000000004</v>
@@ -3680,7 +3677,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="3" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B130" s="8">
         <v>0.57399999999999995</v>
@@ -3700,7 +3697,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="3" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="B131" s="8">
         <v>0.56299999999999994</v>
@@ -3720,7 +3717,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="3" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B132" s="8">
         <v>0.84799999999999998</v>
@@ -3740,7 +3737,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="3" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B133" s="8">
         <v>0.57099999999999995</v>
@@ -3760,7 +3757,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="3" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B134" s="8">
         <v>0.71099999999999997</v>
@@ -3780,7 +3777,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="3" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B135" s="8">
         <v>0.47699999999999998</v>
@@ -3800,7 +3797,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="3" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B136" s="8">
         <v>0.82299999999999995</v>
@@ -3820,7 +3817,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="3" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B137" s="8">
         <v>0.51500000000000001</v>
@@ -3840,7 +3837,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="3" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B138" s="8">
         <v>0.70399999999999996</v>
@@ -3860,7 +3857,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="3" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="B139" s="8">
         <v>0.81299999999999994</v>
@@ -3880,7 +3877,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B140" s="8">
         <v>0.61099999999999999</v>
@@ -3900,7 +3897,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="3" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B141" s="8">
         <v>0.78300000000000003</v>
@@ -3920,7 +3917,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B142" s="8">
         <v>0.51100000000000001</v>
@@ -3940,7 +3937,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="3" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="B143" s="8">
         <v>0.82499999999999996</v>
@@ -3960,7 +3957,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B144" s="8">
         <v>0.82399999999999995</v>
@@ -3980,7 +3977,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="B145" s="8">
         <v>0.52400000000000002</v>
@@ -4000,7 +3997,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="3" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="B146" s="8">
         <v>0.89</v>
@@ -4020,7 +4017,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="3" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="B147" s="8">
         <v>0.85199999999999998</v>
@@ -4040,7 +4037,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="3" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B148" s="8">
         <v>0.75600000000000001</v>
@@ -4060,7 +4057,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="3" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="B149" s="8">
         <v>0.78300000000000003</v>
@@ -4080,7 +4077,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="3" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B150" s="8">
         <v>0.45900000000000002</v>
@@ -4100,7 +4097,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="3" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="B151" s="8">
         <v>0.433</v>
@@ -4120,7 +4117,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="3" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="B152" s="8">
         <v>0.76100000000000001</v>
@@ -4140,7 +4137,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="3" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="B153" s="8">
         <v>0.72399999999999998</v>
@@ -4160,7 +4157,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="3" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B154" s="8">
         <v>0.51</v>
@@ -4180,7 +4177,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="3" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="B155" s="8">
         <v>0.61299999999999999</v>
@@ -4200,7 +4197,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B156" s="8">
         <v>0.72</v>
@@ -4220,7 +4217,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="3" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B157" s="8">
         <v>0.48</v>
@@ -4240,7 +4237,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="3" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="B158" s="8">
         <v>0.47</v>
@@ -4260,7 +4257,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="3" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="B159" s="8">
         <v>0.85399999999999998</v>
@@ -4280,7 +4277,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="B160" s="8">
         <v>0.66800000000000004</v>
@@ -4300,7 +4297,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="3" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="B161" s="8">
         <v>0.59199999999999997</v>
@@ -4320,7 +4317,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="3" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B162" s="8">
         <v>0.71499999999999997</v>
@@ -4340,7 +4337,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="3" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="B163" s="8">
         <v>0.39800000000000002</v>
@@ -4360,7 +4357,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="3" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="B164" s="8">
         <v>0.56699999999999995</v>
@@ -4380,7 +4377,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B165" s="8">
         <v>0.39700000000000002</v>
@@ -4400,48 +4397,28 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="3" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="B166" s="8">
-        <v>0.48</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="C166" s="3">
-        <v>60.68</v>
+        <v>72.27</v>
       </c>
       <c r="D166" s="8">
-        <v>11.6</v>
+        <v>10.8</v>
       </c>
       <c r="E166" s="8">
-        <v>6.1</v>
+        <f>-F170</f>
+        <v>0</v>
       </c>
       <c r="F166" s="8">
-        <v>1203</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B167" s="8">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="C167" s="3">
-        <v>72.27</v>
-      </c>
-      <c r="D167" s="8">
-        <v>10.8</v>
-      </c>
-      <c r="E167" s="8">
-        <f>-F171</f>
-        <v>0</v>
-      </c>
-      <c r="F167" s="8">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="D168" s="10"/>
-      <c r="E168" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
